--- a/BULK BOARD.xlsx
+++ b/BULK BOARD.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dineth Pansilu\Desktop\FLI-SUPER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLi Super\Desktop\SHARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0978F3EB-554B-4589-B5F5-73865E26F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PRINT" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="3" r:id="rId2"/>
     <sheet name="ITEM LIST" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,8 +156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +197,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,6 +206,22 @@
     <font>
       <b/>
       <sz val="90"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -370,35 +377,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,190 +689,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="23" t="str">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="20" t="str">
         <f>DATA!D2</f>
-        <v>ලංකා හාල්මැස්සො</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+        <v>සුදු කැකුළු (IMPORTED)</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="J3" s="14">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="22">
         <f>DATA!B2</f>
-        <v>2607</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="E7" s="20" t="str">
+        <v>6939</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="D7" s="19" t="str">
         <f>DATA!E2</f>
-        <v>100G</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18" t="s">
+        <v>1KG</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <f>DATA!C2</f>
-        <v>100</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -871,205 +875,167 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="15" t="str">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="23" t="str">
         <f>DATA!D3</f>
-        <v>එනසාල්</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+        <v>සුදු කැකුළු (ලංකා)</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="4"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="J21" s="14">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="22">
         <f>DATA!B3</f>
-        <v>13074</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="4"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="4"/>
-      <c r="E25" s="20" t="str">
+        <v>210</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="D25" s="19" t="str">
         <f>DATA!E3</f>
-        <v>100G</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="4"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="4"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="4"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="18" t="s">
+        <v>1KG</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="22">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17">
         <f>DATA!C3</f>
         <v>210</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="19" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="6"/>
+      <c r="H29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1077,219 +1043,167 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="15" t="str">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="20" t="e">
         <f>DATA!D4</f>
-        <v>කෑලි මිරිස්</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="4"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="J39" s="14">
+      <c r="I39" s="22">
         <f>DATA!B4</f>
-        <v>8153</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="4"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="4"/>
-      <c r="E43" s="20" t="str">
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="D43" s="19" t="e">
         <f>DATA!E4</f>
-        <v>100G</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="4"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="4"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="18" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="22">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17" t="e">
         <f>DATA!C4</f>
-        <v>92</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="17" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="4"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="B53" s="6"/>
+      <c r="H47" s="14"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="14"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="14"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="14"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="14"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -1297,114 +1211,28 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
+      <c r="J53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I47:J51"/>
-    <mergeCell ref="E25:G27"/>
-    <mergeCell ref="C29:D33"/>
-    <mergeCell ref="E29:H33"/>
-    <mergeCell ref="I29:J33"/>
-    <mergeCell ref="D37:H41"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="E43:G45"/>
-    <mergeCell ref="C47:D51"/>
-    <mergeCell ref="E47:H51"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D19:H23"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="C11:D15"/>
-    <mergeCell ref="E11:H15"/>
-    <mergeCell ref="I11:J15"/>
-    <mergeCell ref="D1:H5"/>
-    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C19:G23"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B11:C15"/>
+    <mergeCell ref="C1:G5"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="D11:F15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="D25:F27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="C37:G41"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D43:F45"/>
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="D29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D47:F51"/>
+    <mergeCell ref="G47:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1413,23 +1241,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1444,32 +1272,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>2607</v>
+        <v>6939</v>
       </c>
       <c r="C2" s="10">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,2,)</f>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,3,)</f>
-        <v>ලංකා හාල්මැස්සො</v>
+        <v>සුදු කැකුළු (IMPORTED)</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,4,)</f>
-        <v>100G</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1KG</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>13074</v>
+        <v>210</v>
       </c>
       <c r="C3" s="10">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,2,)</f>
@@ -1477,31 +1305,29 @@
       </c>
       <c r="D3" s="10" t="str">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,3,)</f>
-        <v>එනසාල්</v>
+        <v>සුදු කැකුළු (ලංකා)</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,4,)</f>
-        <v>100G</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1KG</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>8153</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="e">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,2,)</f>
-        <v>92</v>
-      </c>
-      <c r="D4" s="10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="10" t="e">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,3,)</f>
-        <v>කෑලි මිරිස්</v>
-      </c>
-      <c r="E4" s="10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="10" t="e">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,4,)</f>
-        <v>100G</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1510,22 +1336,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AFF703-3149-4A69-A4AC-FC04CC4DC885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1540,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1557,7 +1384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1574,7 +1401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1591,7 +1418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1608,7 +1435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1625,7 +1452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,7 +1469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1659,7 +1486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1676,7 +1503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1693,7 +1520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1710,7 +1537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1727,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1744,7 +1571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1761,7 +1588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1778,7 +1605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1795,7 +1622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1812,7 +1639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1829,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1846,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1863,7 +1690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1880,7 +1707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1897,7 +1724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1914,7 +1741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1931,7 +1758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1948,7 +1775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1965,7 +1792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1982,7 +1809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1999,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2016,7 +1843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2033,7 +1860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>

--- a/BULK BOARD.xlsx
+++ b/BULK BOARD.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLi Super\Desktop\SHARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.150\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B83AC-BC14-4636-A1C2-3572C5198673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINT" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="3" r:id="rId2"/>
     <sheet name="ITEM LIST" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,9 +85,6 @@
     <t>නාඩු</t>
   </si>
   <si>
-    <t>කට් කඩල</t>
-  </si>
-  <si>
     <t>සම්බා කැකුළු</t>
   </si>
   <si>
@@ -151,12 +149,15 @@
   </si>
   <si>
     <t>1KG</t>
+  </si>
+  <si>
+    <t>කළු කඩල</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,17 +384,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,13 +402,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,33 +690,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="11" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="20" t="str">
         <f>DATA!D2</f>
-        <v>සුදු කැකුළු (IMPORTED)</v>
+        <v>සුදු කැකුළු (ලංකා)</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -725,7 +726,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -734,30 +735,30 @@
       <c r="G2" s="21"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="I3" s="22">
+      <c r="I3" s="16">
         <f>DATA!B2</f>
-        <v>6939</v>
+        <v>10112</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -767,105 +768,105 @@
       <c r="I5" s="9"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="22" t="str">
         <f>DATA!E2</f>
         <v>1KG</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="C11" s="19"/>
+      <c r="D11" s="23">
         <f>DATA!C2</f>
         <v>210</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="14"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="14"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="14"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="14"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -877,163 +878,163 @@
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="17" t="str">
         <f>DATA!D3</f>
-        <v>සුදු කැකුළු (ලංකා)</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+        <v>කළු කඩල</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="I21" s="22">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="16">
         <f>DATA!B3</f>
-        <v>210</v>
+        <v>18578</v>
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="I22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="D25" s="19" t="str">
+      <c r="D25" s="22" t="str">
         <f>DATA!E3</f>
-        <v>1KG</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+        <v>100G</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17">
+      <c r="C29" s="19"/>
+      <c r="D29" s="23">
         <f>DATA!C3</f>
-        <v>210</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="15"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="15"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="15"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="15"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="15"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1045,8 +1046,8 @@
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="20" t="e">
@@ -1061,7 +1062,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -1070,30 +1071,30 @@
       <c r="G38" s="21"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="I39" s="22">
+      <c r="I39" s="16">
         <f>DATA!B4</f>
         <v>0</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -1103,105 +1104,105 @@
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="D43" s="19" t="e">
+      <c r="D43" s="22" t="e">
         <f>DATA!E4</f>
         <v>#N/A</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17" t="e">
+      <c r="C47" s="19"/>
+      <c r="D47" s="23" t="e">
         <f>DATA!C4</f>
         <v>#N/A</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18" t="s">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H47" s="14"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="14"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="14"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="14"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="14"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1215,6 +1216,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="D29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="D25:F27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="C37:G41"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D43:F45"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="C19:G23"/>
     <mergeCell ref="I3:I4"/>
@@ -1223,16 +1234,6 @@
     <mergeCell ref="D7:F9"/>
     <mergeCell ref="D11:F15"/>
     <mergeCell ref="G11:G15"/>
-    <mergeCell ref="D25:F27"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="C37:G41"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D43:F45"/>
-    <mergeCell ref="B47:C51"/>
-    <mergeCell ref="D29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D47:F51"/>
-    <mergeCell ref="G47:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1241,23 +1242,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1272,12 +1273,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>6939</v>
+        <v>10112</v>
       </c>
       <c r="C2" s="10">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,2,)</f>
@@ -1285,34 +1286,34 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,3,)</f>
-        <v>සුදු කැකුළු (IMPORTED)</v>
+        <v>සුදු කැකුළු (ලංකා)</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>VLOOKUP(B2,'ITEM LIST'!B2:E124,4,)</f>
         <v>1KG</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>210</v>
+        <v>18578</v>
       </c>
       <c r="C3" s="10">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,2,)</f>
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,3,)</f>
-        <v>සුදු කැකුළු (ලංකා)</v>
+        <v>කළු කඩල</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>VLOOKUP(B3,'ITEM LIST'!B3:E125,4,)</f>
-        <v>1KG</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100G</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1336,23 +1337,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1367,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1381,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1398,10 +1399,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1415,10 +1416,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1432,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1449,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1466,10 +1467,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1483,10 +1484,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1500,10 +1501,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1517,10 +1518,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1531,13 +1532,13 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1548,13 +1549,13 @@
         <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1565,13 +1566,13 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1582,13 +1583,13 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1599,13 +1600,13 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1616,13 +1617,13 @@
         <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1633,13 +1634,13 @@
         <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1650,13 +1651,13 @@
         <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1667,13 +1668,13 @@
         <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1684,13 +1685,13 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1701,13 +1702,13 @@
         <v>670</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1718,132 +1719,132 @@
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>214</v>
+        <v>2626</v>
       </c>
       <c r="C23">
         <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>255</v>
+        <v>2588</v>
       </c>
       <c r="C24">
         <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>160</v>
+        <v>2624</v>
       </c>
       <c r="C25">
         <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>195</v>
+        <v>6797</v>
       </c>
       <c r="C26">
         <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>420</v>
+        <v>2595</v>
       </c>
       <c r="C27">
         <v>420</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>190</v>
+        <v>9090</v>
       </c>
       <c r="C28">
         <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>210</v>
+        <v>10112</v>
       </c>
       <c r="C29">
         <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1854,13 +1855,13 @@
         <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1871,10 +1872,10 @@
         <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/BULK BOARD.xlsx
+++ b/BULK BOARD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.150\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dineth Pansilu\Desktop\FLI-SUPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B83AC-BC14-4636-A1C2-3572C5198673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E73CB02-E428-4846-B824-EF7819BF3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINT" sheetId="2" r:id="rId1"/>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +215,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,17 +376,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,13 +394,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +686,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,35 +706,35 @@
     <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="str">
+      <c r="C1" s="23" t="str">
         <f>DATA!D2</f>
         <v>සුදු කැකුළු (ලංකා)</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="16">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="22">
         <f>DATA!B2</f>
         <v>10112</v>
       </c>
@@ -750,21 +742,21 @@
     </row>
     <row r="4" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="I5" s="9"/>
       <c r="J5" s="5"/>
     </row>
@@ -774,26 +766,26 @@
     </row>
     <row r="7" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="19" t="str">
         <f>DATA!E2</f>
         <v>1KG</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -802,17 +794,17 @@
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="23">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <f>DATA!C2</f>
         <v>210</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="14"/>
@@ -820,45 +812,45 @@
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="14"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="14"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="14"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="14"/>
       <c r="J15" s="5"/>
     </row>
@@ -882,35 +874,35 @@
     <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="20" t="str">
         <f>DATA!D3</f>
         <v>කළු කඩල</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="I21" s="16">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="I21" s="22">
         <f>DATA!B3</f>
         <v>18578</v>
       </c>
@@ -918,21 +910,21 @@
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="I22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
     </row>
@@ -942,26 +934,26 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="D25" s="22" t="str">
+      <c r="D25" s="19" t="str">
         <f>DATA!E3</f>
         <v>100G</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -970,17 +962,17 @@
     </row>
     <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="23">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17">
         <f>DATA!C3</f>
         <v>65</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="15"/>
@@ -988,45 +980,45 @@
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="15"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="15"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="15"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="15"/>
       <c r="J33" s="5"/>
     </row>
@@ -1050,9 +1042,9 @@
     <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="20" t="e">
+      <c r="C37" s="20" t="str">
         <f>DATA!D4</f>
-        <v>#N/A</v>
+        <v>වියළි මිදි</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -1078,9 +1070,9 @@
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="I39" s="16">
+      <c r="I39" s="22">
         <f>DATA!B4</f>
-        <v>0</v>
+        <v>7745</v>
       </c>
       <c r="J39" s="5"/>
     </row>
@@ -1091,7 +1083,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1110,26 +1102,26 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="D43" s="22" t="e">
+      <c r="D43" s="19" t="str">
         <f>DATA!E4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+        <v>100G</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1138,17 +1130,17 @@
     </row>
     <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="23" t="e">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17">
         <f>DATA!C4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H47" s="14"/>
@@ -1156,45 +1148,45 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="14"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="14"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="14"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="14"/>
       <c r="J51" s="5"/>
     </row>
@@ -1216,16 +1208,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B47:C51"/>
-    <mergeCell ref="D29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="D25:F27"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="C37:G41"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D43:F45"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="C19:G23"/>
     <mergeCell ref="I3:I4"/>
@@ -1234,6 +1216,16 @@
     <mergeCell ref="D7:F9"/>
     <mergeCell ref="D11:F15"/>
     <mergeCell ref="G11:G15"/>
+    <mergeCell ref="D25:F27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="C37:G41"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D43:F45"/>
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="D29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D47:F51"/>
+    <mergeCell ref="G47:G51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1246,8 +1238,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,18 +1309,20 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="e">
+      <c r="B4" s="10">
+        <v>7745</v>
+      </c>
+      <c r="C4" s="10">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="10" t="e">
+        <v>160</v>
+      </c>
+      <c r="D4" s="10" t="str">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="10" t="e">
+        <v>වියළි මිදි</v>
+      </c>
+      <c r="E4" s="10" t="str">
         <f>VLOOKUP(B4,'ITEM LIST'!B4:E126,4,)</f>
-        <v>#N/A</v>
+        <v>100G</v>
       </c>
     </row>
   </sheetData>
